--- a/data/raw/sah_peakdeaths.xlsx
+++ b/data/raw/sah_peakdeaths.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhi\Desktop\dspp-finalproject\dspp-finalproject\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhi\Desktop\dspp-finalproject\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D000BC8-034F-4AF2-8031-8A846FB9B147}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C046BEDD-47BE-4799-B541-7C71779ACB93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8B9E68BF-06EB-4FCB-B87F-1D375C03F5B4}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>state</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Arkansas</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - </t>
   </si>
   <si>
     <t>California</t>
@@ -589,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B5AFB-FD64-481B-A17B-5391AC2232DE}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -615,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -700,15 +697,10 @@
       <c r="B5" s="1">
         <v>43917</v>
       </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
       <c r="D5" s="2">
         <v>-5</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="2">
         <v>0</v>
       </c>
@@ -719,7 +711,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
         <v>43901</v>
@@ -730,9 +722,7 @@
       <c r="D6" s="2">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2">
         <v>1</v>
       </c>
@@ -742,7 +732,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
         <v>43909</v>
@@ -765,7 +755,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
         <v>43902</v>
@@ -788,7 +778,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
         <v>43906</v>
@@ -811,7 +801,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1">
         <v>43903</v>
@@ -834,14 +824,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1">
         <v>43924</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
       <c r="D11" s="2">
         <v>9</v>
       </c>
@@ -857,14 +844,11 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
         <v>43914</v>
       </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
       <c r="D12" s="2">
         <v>25</v>
       </c>
@@ -880,7 +864,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1">
         <v>43907</v>
@@ -903,7 +887,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1">
         <v>43915</v>
@@ -926,7 +910,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
         <v>43903</v>
@@ -949,7 +933,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1">
         <v>43902</v>
@@ -972,7 +956,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="1">
         <v>43907</v>
@@ -983,9 +967,7 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2">
         <v>0</v>
       </c>
@@ -995,14 +977,11 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="1">
         <v>43907</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
       <c r="D18" s="2">
         <v>-1</v>
       </c>
@@ -1018,7 +997,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1">
         <v>43909</v>
@@ -1041,7 +1020,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
         <v>43903</v>
@@ -1064,7 +1043,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>43908</v>
@@ -1087,7 +1066,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>43906</v>
@@ -1098,9 +1077,7 @@
       <c r="D22" s="2">
         <v>12</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2">
         <v>1</v>
       </c>
@@ -1110,7 +1087,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="1">
         <v>43903</v>
@@ -1133,7 +1110,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1">
         <v>43903</v>
@@ -1156,14 +1133,11 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="1">
         <v>43918</v>
       </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
       <c r="D25" s="2">
         <v>0</v>
       </c>
@@ -1179,7 +1153,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1">
         <v>43914</v>
@@ -1202,14 +1176,11 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="1">
         <v>43913</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
       <c r="D27" s="2">
         <v>5</v>
       </c>
@@ -1225,7 +1196,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1">
         <v>43914</v>
@@ -1248,20 +1219,15 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1">
         <v>43906</v>
       </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
       <c r="D29" s="2">
         <v>-10</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2">
         <v>0</v>
       </c>
@@ -1271,7 +1237,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1">
         <v>43914</v>
@@ -1294,7 +1260,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1">
         <v>43906</v>
@@ -1317,7 +1283,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1">
         <v>43906</v>
@@ -1328,9 +1294,7 @@
       <c r="D32" s="2">
         <v>4</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E32" s="2"/>
       <c r="F32" s="2">
         <v>1</v>
       </c>
@@ -1340,7 +1304,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="1">
         <v>43902</v>
@@ -1363,7 +1327,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="1">
         <v>43902</v>
@@ -1386,7 +1350,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="1">
         <v>43904</v>
@@ -1409,20 +1373,12 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D36" s="2">
         <v>-11</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="2">
         <v>0</v>
       </c>
@@ -1432,7 +1388,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="1">
         <v>43902</v>
@@ -1455,7 +1411,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="1">
         <v>43914</v>
@@ -1478,20 +1434,15 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="1">
         <v>43902</v>
       </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
       <c r="D39" s="2">
         <v>23</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="2">
         <v>1</v>
       </c>
@@ -1501,7 +1452,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="1">
         <v>43922</v>
@@ -1524,14 +1475,11 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1">
         <v>43907</v>
       </c>
-      <c r="C41" t="s">
-        <v>10</v>
-      </c>
       <c r="D41" s="2">
         <v>15</v>
       </c>
@@ -1547,14 +1495,11 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1">
         <v>43908</v>
       </c>
-      <c r="C42" t="s">
-        <v>10</v>
-      </c>
       <c r="D42" s="2">
         <v>10</v>
       </c>
@@ -1570,20 +1515,15 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1">
         <v>43927</v>
       </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
       <c r="D43" s="2">
         <v>-14</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E43" s="2"/>
       <c r="F43" s="2">
         <v>0</v>
       </c>
@@ -1593,7 +1533,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="1">
         <v>43913</v>
@@ -1616,14 +1556,11 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="1">
         <v>43911</v>
       </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
       <c r="D45" s="2">
         <v>4</v>
       </c>
@@ -1639,20 +1576,15 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="1">
         <v>43909</v>
       </c>
-      <c r="C46" t="s">
-        <v>10</v>
-      </c>
       <c r="D46" s="2">
         <v>-8</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="2">
         <v>0</v>
       </c>
@@ -1662,7 +1594,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1">
         <v>43903</v>
@@ -1685,7 +1617,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="1">
         <v>43905</v>
@@ -1708,7 +1640,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="1">
         <v>43901</v>
@@ -1731,7 +1663,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="1">
         <v>43914</v>
@@ -1742,9 +1674,7 @@
       <c r="D50" s="2">
         <v>12</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E50" s="2"/>
       <c r="F50" s="2">
         <v>1</v>
       </c>
@@ -1754,7 +1684,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="1">
         <v>43907</v>
@@ -1777,20 +1707,15 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="1">
         <v>43910</v>
       </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
       <c r="D52" s="2">
         <v>-6</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="E52" s="2"/>
       <c r="F52" s="2">
         <v>0</v>
       </c>

--- a/data/raw/sah_peakdeaths.xlsx
+++ b/data/raw/sah_peakdeaths.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhi\Desktop\dspp-finalproject\data\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruochen_wang/Downloads/DataScienceAssignments/groupproject/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C046BEDD-47BE-4799-B541-7C71779ACB93}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DA1945-F5BF-DA42-9E33-28062F50E9BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8B9E68BF-06EB-4FCB-B87F-1D375C03F5B4}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{8B9E68BF-06EB-4FCB-B87F-1D375C03F5B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>mg_restr</t>
   </si>
   <si>
-    <t>non-ess_restr</t>
-  </si>
-  <si>
     <t>days_since_peak_deaths</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>reopen_date</t>
+  </si>
+  <si>
+    <t>noness_restr</t>
   </si>
 </sst>
 </file>
@@ -586,19 +586,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3B5AFB-FD64-481B-A17B-5391AC2232DE}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,24 +606,24 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>43909</v>
@@ -644,9 +644,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>43914</v>
@@ -667,9 +667,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>43920</v>
@@ -690,9 +690,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>43917</v>
@@ -709,9 +709,9 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>43901</v>
@@ -730,9 +730,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>43909</v>
@@ -753,9 +753,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>43902</v>
@@ -776,9 +776,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>43906</v>
@@ -799,9 +799,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>43903</v>
@@ -822,9 +822,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>43924</v>
@@ -842,9 +842,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>43914</v>
@@ -862,9 +862,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>43907</v>
@@ -885,9 +885,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>43915</v>
@@ -908,9 +908,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
         <v>43903</v>
@@ -931,9 +931,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <v>43902</v>
@@ -954,9 +954,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>43907</v>
@@ -975,9 +975,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>43907</v>
@@ -995,9 +995,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
         <v>43909</v>
@@ -1018,9 +1018,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="1">
         <v>43903</v>
@@ -1041,9 +1041,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
         <v>43908</v>
@@ -1064,9 +1064,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>43906</v>
@@ -1085,9 +1085,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1">
         <v>43903</v>
@@ -1108,9 +1108,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1">
         <v>43903</v>
@@ -1131,9 +1131,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1">
         <v>43918</v>
@@ -1151,9 +1151,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>43914</v>
@@ -1174,9 +1174,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>43913</v>
@@ -1194,9 +1194,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="1">
         <v>43914</v>
@@ -1217,9 +1217,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1">
         <v>43906</v>
@@ -1235,9 +1235,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1">
         <v>43914</v>
@@ -1258,9 +1258,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1">
         <v>43906</v>
@@ -1281,9 +1281,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1">
         <v>43906</v>
@@ -1302,9 +1302,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" s="1">
         <v>43902</v>
@@ -1325,9 +1325,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B34" s="1">
         <v>43902</v>
@@ -1348,9 +1348,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" s="1">
         <v>43904</v>
@@ -1371,9 +1371,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D36" s="2">
         <v>-11</v>
@@ -1386,9 +1386,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B37" s="1">
         <v>43902</v>
@@ -1409,9 +1409,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B38" s="1">
         <v>43914</v>
@@ -1432,9 +1432,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" s="1">
         <v>43902</v>
@@ -1450,9 +1450,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B40" s="1">
         <v>43922</v>
@@ -1473,9 +1473,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B41" s="1">
         <v>43907</v>
@@ -1493,9 +1493,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1">
         <v>43908</v>
@@ -1513,9 +1513,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1">
         <v>43927</v>
@@ -1531,9 +1531,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1">
         <v>43913</v>
@@ -1554,9 +1554,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" s="1">
         <v>43911</v>
@@ -1574,9 +1574,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" s="1">
         <v>43909</v>
@@ -1592,9 +1592,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" s="1">
         <v>43903</v>
@@ -1615,9 +1615,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1">
         <v>43905</v>
@@ -1638,9 +1638,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B49" s="1">
         <v>43901</v>
@@ -1661,9 +1661,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B50" s="1">
         <v>43914</v>
@@ -1682,9 +1682,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="1">
         <v>43907</v>
@@ -1705,9 +1705,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1">
         <v>43910</v>
